--- a/backend/assets/New Microsoft Excel Worksheet.xlsx
+++ b/backend/assets/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Documents\GitHub\navit\backend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817780B6-B4EA-4417-840D-85B05A2BC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59D909-E474-4F71-BD41-BE87F020BDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,21 +368,21 @@
   <dimension ref="A1:F902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E859" sqref="E1:E859"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="E1">
         <f>IF(A1&gt;=6000, A1-6000, A1+1000)</f>
-        <v>1181</v>
+        <v>1051</v>
       </c>
       <c r="F1">
         <f>IF(B1&gt;=6000, B1-6000, B1+1000)</f>
@@ -391,14 +391,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" si="0">IF(A2&gt;=6000, A2-6000, A2+1000)</f>
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F65" si="1">IF(B2&gt;=6000, B2-6000, B2+1000)</f>
@@ -407,14 +407,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1045</v>
+        <v>1099</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
@@ -423,14 +423,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -439,14 +439,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>1051</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1112</v>
+        <v>2051</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -455,14 +455,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>109</v>
+        <v>1029</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1109</v>
+        <v>2029</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -471,14 +471,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>1099</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1065</v>
+        <v>2099</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -487,14 +487,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>96</v>
+        <v>1083</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1096</v>
+        <v>2083</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -503,14 +503,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>80</v>
+        <v>2051</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>3051</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -519,14 +519,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>2029</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1029</v>
+        <v>3029</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -535,14 +535,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>2099</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1081</v>
+        <v>3099</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -551,14 +551,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>2083</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1056</v>
+        <v>3083</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -567,14 +567,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>3051</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>4051</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -583,14 +583,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>53</v>
+        <v>3029</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1053</v>
+        <v>4029</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -599,14 +599,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>76</v>
+        <v>3099</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1076</v>
+        <v>4099</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -615,14 +615,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>3083</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>4083</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -631,14 +631,14 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>4051</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1023</v>
+        <v>5051</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -647,14 +647,14 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>110</v>
+        <v>4029</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1110</v>
+        <v>5029</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -663,14 +663,14 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>4099</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1018</v>
+        <v>5099</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -679,14 +679,14 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>49</v>
+        <v>4083</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1049</v>
+        <v>5083</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -695,14 +695,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>5051</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>6051</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
@@ -711,14 +711,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>57</v>
+        <v>5029</v>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1057</v>
+        <v>6029</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
@@ -727,14 +727,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>105</v>
+        <v>5099</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1105</v>
+        <v>6099</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -743,14 +743,14 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>84</v>
+        <v>5083</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1084</v>
+        <v>6083</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
